--- a/data/hotels_by_city/Houston/Houston_shard_338.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_338.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d631227-Reviews-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Hotel-Suites-La-Porte.h1583130.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,828 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r565481532-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>631227</t>
+  </si>
+  <si>
+    <t>565481532</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>A Good Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for an event that was nearby at Sylvan Beach.  The manager had a very friendly greeting and checked-us in.  The other staff encounters were equally friendly and helpful.  The rooms were clean and in good condition. It is a good standard hotel with reasonable prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded March 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for an event that was nearby at Sylvan Beach.  The manager had a very friendly greeting and checked-us in.  The other staff encounters were equally friendly and helpful.  The rooms were clean and in good condition. It is a good standard hotel with reasonable prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r561129085-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>561129085</t>
+  </si>
+  <si>
+    <t>02/17/2018</t>
+  </si>
+  <si>
+    <t>Room not cleaned</t>
+  </si>
+  <si>
+    <t>Stayed there recently and day two the duvet was straightened but the sheets were not straightened at all, they were in the same place as when we woke up.  The toiletries were not replenished and the toilet was used and not flushed, gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Stayed there recently and day two the duvet was straightened but the sheets were not straightened at all, they were in the same place as when we woke up.  The toiletries were not replenished and the toilet was used and not flushed, gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r540551090-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>540551090</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Good hotel, no problems.</t>
+  </si>
+  <si>
+    <t>This was a nice hotel- typical Holiday Inn Express. Everything you'd expect.Not amazing, but a good place to stay, fair price, clean, very nice staff. Check in was quick and efficient. Room was as expected (no upgrade for Platinum status but not really needed, so no big deal). Happy with the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>This was a nice hotel- typical Holiday Inn Express. Everything you'd expect.Not amazing, but a good place to stay, fair price, clean, very nice staff. Check in was quick and efficient. Room was as expected (no upgrade for Platinum status but not really needed, so no big deal). Happy with the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r495325102-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>495325102</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Great Getaway!!</t>
+  </si>
+  <si>
+    <t>This hotel is great.The rooms are very nice and clean,The bed was so comfortable.The service from the staff was amazing,very helpful and nice.I would recommend this hotel to all my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is great.The rooms are very nice and clean,The bed was so comfortable.The service from the staff was amazing,very helpful and nice.I would recommend this hotel to all my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r493400231-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>493400231</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>I was impressed by this hotel!  It had very spacious rooms, a ceiling fan, recessed lighting, a kitchenette. The pool was open from 10am until 10pm.  The breakfast buffet had a good variety from waffles and eggs to cereal and bagels. It also had a small fitness center with treadmills, weights, and a Bosu ball.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>I was impressed by this hotel!  It had very spacious rooms, a ceiling fan, recessed lighting, a kitchenette. The pool was open from 10am until 10pm.  The breakfast buffet had a good variety from waffles and eggs to cereal and bagels. It also had a small fitness center with treadmills, weights, and a Bosu ball.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r389907260-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>389907260</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay!</t>
+  </si>
+  <si>
+    <t>The rooms were clean and spacious. Hot breakfast in the morning with plenty of space for patrons. Food was eggs, sausage, pancakes, and everything else you normally might have. Smooth and courteous process at check in and check out. Good location and easy to get to from Highway 146. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were clean and spacious. Hot breakfast in the morning with plenty of space for patrons. Food was eggs, sausage, pancakes, and everything else you normally might have. Smooth and courteous process at check in and check out. Good location and easy to get to from Highway 146. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r346689523-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>346689523</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Perfect for before our cruise</t>
+  </si>
+  <si>
+    <t>Nice hotel.  We stayed one night before leaving for a cruise out of Bayport.  Clean room and nice staff.  Decent breakfast.  Not much around the hotel if you don't have a car.  We were able to find an affordable shuttle company to take us to the port.  Felt very safe here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel.  We stayed one night before leaving for a cruise out of Bayport.  Clean room and nice staff.  Decent breakfast.  Not much around the hotel if you don't have a car.  We were able to find an affordable shuttle company to take us to the port.  Felt very safe here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r334039268-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>334039268</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel before leaving on a cruise.  I arrived after midnight.  They allowed for a late checkout. Room was clean and spacious. Had a sofa and chair. Bathroom was very clean.  Breakfast was good.  They had lots of options to pick from.   I would recommend this to anyone staying in this part of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel before leaving on a cruise.  I arrived after midnight.  They allowed for a late checkout. Room was clean and spacious. Had a sofa and chair. Bathroom was very clean.  Breakfast was good.  They had lots of options to pick from.   I would recommend this to anyone staying in this part of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r332369377-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>332369377</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>We stayed here one night while passing through on vacation.  The building was quiet, easily accessible from the highway, clean, and the impressive room was basically a mini-suite with kitchenette and small table,  seating area, bed and bath. Free WiFi, continental breakfast. Had some doubts at first as our reservation had been lost and it took a while to fix that issue and check in. All was well in the end, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night while passing through on vacation.  The building was quiet, easily accessible from the highway, clean, and the impressive room was basically a mini-suite with kitchenette and small table,  seating area, bed and bath. Free WiFi, continental breakfast. Had some doubts at first as our reservation had been lost and it took a while to fix that issue and check in. All was well in the end, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r305865894-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>305865894</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Outstanding staff</t>
+  </si>
+  <si>
+    <t>I was here for work. As a frequent traveler to IHG brand hotels I requested an upgrade upon arrival, but none were available.  When I extended an extra week, i requested it again and this time I was upgraded. The upgraded room is fantastic, I really appreciate the upgrade and the friendly staff. The breakfast is the same as all the holiday inn expresses., and they could all use a bit of an update.  They do start at 6 AM and even on weekends.I do appreciate that. Most of us travelers work 7 days a week when on the road and the 6 am daily breakfast is a factor I consider when choosing a hotel. I would like it if there was a better selection of fresh fruit.  There is usually just 3 or 4 of each, bananas, oranges, and apples and they are usually not the best quality.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>I was here for work. As a frequent traveler to IHG brand hotels I requested an upgrade upon arrival, but none were available.  When I extended an extra week, i requested it again and this time I was upgraded. The upgraded room is fantastic, I really appreciate the upgrade and the friendly staff. The breakfast is the same as all the holiday inn expresses., and they could all use a bit of an update.  They do start at 6 AM and even on weekends.I do appreciate that. Most of us travelers work 7 days a week when on the road and the 6 am daily breakfast is a factor I consider when choosing a hotel. I would like it if there was a better selection of fresh fruit.  There is usually just 3 or 4 of each, bananas, oranges, and apples and they are usually not the best quality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r296770279-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>296770279</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel. The beds were amazingly comfortable.  The staff helpful, and they even had late night pancakes!   This is a standard Holiday Inn property and everything I have come to expect from that chain. We had a good breakfast, a clean and spacious room, quiet halls and enjoyed the courteous staff.  It is not really close to anything, but as a result it is a quiet reprieve from the noisier areas around the Kemah Boardwalk without being a long drive to get there. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel. The beds were amazingly comfortable.  The staff helpful, and they even had late night pancakes!   This is a standard Holiday Inn property and everything I have come to expect from that chain. We had a good breakfast, a clean and spacious room, quiet halls and enjoyed the courteous staff.  It is not really close to anything, but as a result it is a quiet reprieve from the noisier areas around the Kemah Boardwalk without being a long drive to get there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r287899403-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>287899403</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>We had a great stay here. The rooms were very clean, comfortable and quite. The management and staff here do an excellent job. Very good breakfast options, with choice of bacon, eggs, sausage gravy and biscuits, good pastries and even a pancake machine. Good location close to Kemah, Nasa, San Jacinto, and Galveston. Will definitely stay here on our next trip to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>We had a great stay here. The rooms were very clean, comfortable and quite. The management and staff here do an excellent job. Very good breakfast options, with choice of bacon, eggs, sausage gravy and biscuits, good pastries and even a pancake machine. Good location close to Kemah, Nasa, San Jacinto, and Galveston. Will definitely stay here on our next trip to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r280655306-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>280655306</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Cleanest Hotel in LA Porte</t>
+  </si>
+  <si>
+    <t>After several attempts to find a decent hotel, success. The friendly staff, and clean rooms sets this hotel apart from the others in the area. The front desk crew of Samatha, Christina, Amanda, Kelsey, and Courtney take care of you from check-in to checkout. The rooms are spacious and very clean. WiFi worked great throughout the hotel. When it comes to price, you get what you pay for in La Porte. The little extra for the stay here was well worth it. Thanks to Prints ha for running a great place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>After several attempts to find a decent hotel, success. The friendly staff, and clean rooms sets this hotel apart from the others in the area. The front desk crew of Samatha, Christina, Amanda, Kelsey, and Courtney take care of you from check-in to checkout. The rooms are spacious and very clean. WiFi worked great throughout the hotel. When it comes to price, you get what you pay for in La Porte. The little extra for the stay here was well worth it. Thanks to Prints ha for running a great place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r267015833-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>267015833</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>This was a good hotel, rooms are very big, and clean. The pool was very nice. Breakfast was good and hot. But the staff was awesome. They went above and beyond for us! Very sweet people. Only a few min from Kehma. Would stay here again any time. The town was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>This was a good hotel, rooms are very big, and clean. The pool was very nice. Breakfast was good and hot. But the staff was awesome. They went above and beyond for us! Very sweet people. Only a few min from Kehma. Would stay here again any time. The town was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r266521761-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>266521761</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel in La Porte</t>
+  </si>
+  <si>
+    <t>We picked this hotel due to pricing and location. The price is a bit high, but our room was very nice. The location was a surprise as it is located in a very commercial area but right off highway 146. Close to Johnson Space Center and other activities we planned.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>We picked this hotel due to pricing and location. The price is a bit high, but our room was very nice. The location was a surprise as it is located in a very commercial area but right off highway 146. Close to Johnson Space Center and other activities we planned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r254109393-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>254109393</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Excellent choice and great value!</t>
+  </si>
+  <si>
+    <t>We stayed here for the night before our cruise. Room is spacious. All the staff is very accommodating and pleasant. Breakfast was your standard holiday inn express morning breakfast but the pancakes were a nice addition along with Greek Yogurt! The eggs, sausage, and biscuits and gravy were just barely warm even though it was only 7am. Very nice eating area though. Overall we're very pleased! Would stay here again! $10 shuttle to the port in the morning!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for the night before our cruise. Room is spacious. All the staff is very accommodating and pleasant. Breakfast was your standard holiday inn express morning breakfast but the pancakes were a nice addition along with Greek Yogurt! The eggs, sausage, and biscuits and gravy were just barely warm even though it was only 7am. Very nice eating area though. Overall we're very pleased! Would stay here again! $10 shuttle to the port in the morning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r253409946-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>253409946</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Trip to Houston area</t>
+  </si>
+  <si>
+    <t>My wife and I were in the Houston area for a few days and stayed at this hotel. It was very nice. Clean, comfortable and lots of space in the room. Front desk was friendly. Breakfast was good. Our room was on the west side which is facing the main hwy and was a little noisy but no issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I were in the Houston area for a few days and stayed at this hotel. It was very nice. Clean, comfortable and lots of space in the room. Front desk was friendly. Breakfast was good. Our room was on the west side which is facing the main hwy and was a little noisy but no issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r240114216-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>240114216</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we were in town for a half marathon. We were pleasantly surprised with a room upgrade. Our room was so nice!  It was large and had a living area and full kitchen. The room was clean and comfortable. If we are in the are again, this will be our hotel for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we were in town for a half marathon. We were pleasantly surprised with a room upgrade. Our room was so nice!  It was large and had a living area and full kitchen. The room was clean and comfortable. If we are in the are again, this will be our hotel for sure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r214955565-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>214955565</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>5am wake up call</t>
+  </si>
+  <si>
+    <t>The staff was super friendly the evening we check in.  The hotel is conveniently located right off the highway.  There are a few restaurants nearby, more if you are willing to drive.  There is a beach close.  It is crowded and you have to pay to go on the pier.  The rooms are updated and clean.  The pool and exercise equipment are great.  At 5 am the fire alarm went off and everyone filed outside in their pajamas.  A fire truck came unceremoniously, an underdressed firefighter went into the building. He came out minutes later, got back in his truck and left.  Everyone eventually started going back into the building.  NO STAFF MEMBER EVER CAME OUT TO EXPLAIN WHAT WAS GOING ON OR TO TELL US IT WAS SAFE TO RE-ENTER THE BUILDING.  I have three children who were afraid and I had no explanation for them.  After asking around it seems the fire alarm was triggered by a new oven and this was the third morning this week this has happened.  I have to drive 500 miles today.  I was not planning on such an early start.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>The staff was super friendly the evening we check in.  The hotel is conveniently located right off the highway.  There are a few restaurants nearby, more if you are willing to drive.  There is a beach close.  It is crowded and you have to pay to go on the pier.  The rooms are updated and clean.  The pool and exercise equipment are great.  At 5 am the fire alarm went off and everyone filed outside in their pajamas.  A fire truck came unceremoniously, an underdressed firefighter went into the building. He came out minutes later, got back in his truck and left.  Everyone eventually started going back into the building.  NO STAFF MEMBER EVER CAME OUT TO EXPLAIN WHAT WAS GOING ON OR TO TELL US IT WAS SAFE TO RE-ENTER THE BUILDING.  I have three children who were afraid and I had no explanation for them.  After asking around it seems the fire alarm was triggered by a new oven and this was the third morning this week this has happened.  I have to drive 500 miles today.  I was not planning on such an early start.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r213882986-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>213882986</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>Family Vacation</t>
+  </si>
+  <si>
+    <t>Our stay here was excellent,  the staff was very friendly, professional,  and helpful. When we come to La Porte again, we will stay here. Excellent Staff and Hotel. My family and I enjoyed our stay here. The rooms are large and clean. The location is convenient. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2014</t>
+  </si>
+  <si>
+    <t>Our stay here was excellent,  the staff was very friendly, professional,  and helpful. When we come to La Porte again, we will stay here. Excellent Staff and Hotel. My family and I enjoyed our stay here. The rooms are large and clean. The location is convenient. I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r211063179-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>211063179</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Friendly hotel</t>
+  </si>
+  <si>
+    <t>We are here on business and our stay has been nice. The rooms are very clean andthe bedding is changed daily. The staff is friendly and helpful. I would stay here again.Thanks for making us feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2014</t>
+  </si>
+  <si>
+    <t>We are here on business and our stay has been nice. The rooms are very clean andthe bedding is changed daily. The staff is friendly and helpful. I would stay here again.Thanks for making us feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r203706299-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>203706299</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Holiday Inn Express in La Porte Texas for the second time. I can not say enough good things about this place. The first time I was there I left something behind, and almost 3 weeks later when I returned it was still there waiting for me. Rei, Shamin, Christina and Jessica all go out of their way to make sure that you are comfortable and have everything you need. Their recommendations for restaurants were spot on. I was impressed that the people there all stayed busy, constantly cleaning in all areas.  All in all the service was great and I would highly recommend this property to anyone traveling to the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded May 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Holiday Inn Express in La Porte Texas for the second time. I can not say enough good things about this place. The first time I was there I left something behind, and almost 3 weeks later when I returned it was still there waiting for me. Rei, Shamin, Christina and Jessica all go out of their way to make sure that you are comfortable and have everything you need. Their recommendations for restaurants were spot on. I was impressed that the people there all stayed busy, constantly cleaning in all areas.  All in all the service was great and I would highly recommend this property to anyone traveling to the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r201483117-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>201483117</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>The place to stay in La Porte</t>
+  </si>
+  <si>
+    <t>This is where I stay every time I come to La Porte.  Its nothing fancy, but it's clean, roomy, bright. I like the location--right across the way from the Kroger. I haven't stayed in the other La Porte hotels because I'm satisfied with this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>This is where I stay every time I come to La Porte.  Its nothing fancy, but it's clean, roomy, bright. I like the location--right across the way from the Kroger. I haven't stayed in the other La Porte hotels because I'm satisfied with this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r167118218-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>167118218</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Excellent Stay"</t>
+  </si>
+  <si>
+    <t>We had a relaxing weekend gateway away from home. My first impression of the hotel not happy.. I think it needs updating. Even though it looks nice!The rooms are very large and clean, but the towels were a little worn out. But Slept really good though. I must say, We enjoyed the breakfast the most. Overall the hotel is nice and clean but needs some serious makeover. The staff was very friendly, and made me feel very welcome. I surely recommend staying at this hotel..</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r157821005-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>157821005</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>We stopped over in La Porte on our drive from Texas back to Georgia because we wanted to visit San Jacinto and the Battleship Texas. The hotel was nice and clean. We got the apartment-style room which was humongous. The breakfast was good and the staff were nice.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r148049758-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>148049758</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>Here for business? Can't beat this hotel</t>
+  </si>
+  <si>
+    <t>This hotel, located right off of highway 146 in La Porte, is exactly what you'd expect for this area. There are only a few reasons to be in La Porte, one being family, the other being business. No one is here to vacation, despite what the mayor wishes.This isn't a resort or a vacation hotel. It has frills like the usual business center, the pool, the complimentary wifi. If you need a place to stay for the night, you won't find a better hotel in this area. The complex is new, the rooms are fresh and clean. Can't really go wrong here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r140580556-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>140580556</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Love Em</t>
+  </si>
+  <si>
+    <t>Loved my stay there....couple of minor things but very nice people.  They treated me wonderful.  4.5 out of 5 stars.  It was real cool but the breakfast got stale once.  Right off of Spencer Highway.  Everyone was so nice and the pool was cool.  Right around the corner from my Texas office.  Gonna go back.  City is beautiful too.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r126423869-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>126423869</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed Spring break 2012. I have requested to have double beds and we got it. Room is very big and view to pool. Has 3 big windows with different views. Has mini Fridge, microwave and small kitchen sink. The only complain is the noise of people walking on the top floor above your room is quite loud.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r122588634-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>122588634</t>
+  </si>
+  <si>
+    <t>01/05/2012</t>
+  </si>
+  <si>
+    <t>la porte at christmas</t>
+  </si>
+  <si>
+    <t>hotel was comfortable and reasonably priced; near San Jacinto battleground monuments where we did an American Volkssport Assn. walk from the museum to Battleship Texas and back.pillows are small and uncomfortable, recommend taking your own.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r108129720-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>108129720</t>
+  </si>
+  <si>
+    <t>05/13/2011</t>
+  </si>
+  <si>
+    <t>A Beautiful Classy Hotel</t>
+  </si>
+  <si>
+    <t>I could not believe that this hotel even though it had good reviews, would be as nice as it was.  The experience was like almost staying in a five star hotel. The staff, hotel decor and the rooms were so comfortable, that I slept like a baby, something I usually do not do at hotels.  This is where my family will stay whenever we will go to La Porte.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r10207782-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>10207782</t>
+  </si>
+  <si>
+    <t>10/21/2007</t>
+  </si>
+  <si>
+    <t>Nice, New, Upgrades and Updates!</t>
+  </si>
+  <si>
+    <t>We always try to stay at HI Express hotels when we travel because we are consistently satisfied with their high levels of quality. The rooms are large and clean, there is almost always a pool (We have kids - very important!), and there is the breakfast spread with those Famous cinnamon rolls!This hotel met - and in some ways exceeded - our standards of what an HI Express should be. The beds had the updated linens and the pillows are labeled "Soft" and "Firm", which is great for "picky pillow people" like me! The room had modern furniture and a huge leather desk chair. The bathroom was clean and bright. The breakfast area was also very modern, with black leather chairs and a flat-screen TV. There was a good crowd at the breakfast on Sunday morning, so things did run out, but the attendant was right there refilling them quickly. A funny thing - they had the make-your-own waffle station and the waffle iron was shaped like Texas!  :  )We didn't need the on-site "convenience shop", but they are great to have for those forgotten items or just a late-night snack!We were very please with this hotel. It is pretty new - built in October 2006, according to the desk clerk. We would recommend it it and we will be staying there on future visits to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>We always try to stay at HI Express hotels when we travel because we are consistently satisfied with their high levels of quality. The rooms are large and clean, there is almost always a pool (We have kids - very important!), and there is the breakfast spread with those Famous cinnamon rolls!This hotel met - and in some ways exceeded - our standards of what an HI Express should be. The beds had the updated linens and the pillows are labeled "Soft" and "Firm", which is great for "picky pillow people" like me! The room had modern furniture and a huge leather desk chair. The bathroom was clean and bright. The breakfast area was also very modern, with black leather chairs and a flat-screen TV. There was a good crowd at the breakfast on Sunday morning, so things did run out, but the attendant was right there refilling them quickly. A funny thing - they had the make-your-own waffle station and the waffle iron was shaped like Texas!  :  )We didn't need the on-site "convenience shop", but they are great to have for those forgotten items or just a late-night snack!We were very please with this hotel. It is pretty new - built in October 2006, according to the desk clerk. We would recommend it it and we will be staying there on future visits to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r10061236-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>10061236</t>
+  </si>
+  <si>
+    <t>10/09/2007</t>
+  </si>
+  <si>
+    <t>Unfriendly hotel staff</t>
+  </si>
+  <si>
+    <t>The management is extremely unfriendly and not helpful at all.  The front desk staff is very incompetent and obviously not trained to solve problems.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r8737888-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>8737888</t>
+  </si>
+  <si>
+    <t>09/16/2007</t>
+  </si>
+  <si>
+    <t>Not up to typical Holiday Inn Express standard, despite being a "new" hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel, opened fairly recently, and since I have stayed in this hotel chain extensively around the country for my business and personal travel, I assumed it would be a good choice.  But it turned out to be just an "ok" choice that is not up the level of quality I expect from this hotel chain.  here's why:
+1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.
+2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!
+3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability...This is a new hotel, opened fairly recently, and since I have stayed in this hotel chain extensively around the country for my business and personal travel, I assumed it would be a good choice.  But it turned out to be just an "ok" choice that is not up the level of quality I expect from this hotel chain.  here's why:1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability from your hotel you should look elsewhere for your stay.4) Staff - Front desk staff is not well trained - had trouble getting our "priority club" accounts credtied for the stay, and had trouble with the billing and a few other requests - staff would not follow through on our requests despite repeated stops at the front desk to inquire about status of previous requests.However, on a positive note, we can say that the rooms are spacious and new (and generally clean with the exception of that rather horrific ceiling mold problem I mentioned earlier).  Parking is ample.  The business center has three "free" internet capable computers for guest use.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>This is a new hotel, opened fairly recently, and since I have stayed in this hotel chain extensively around the country for my business and personal travel, I assumed it would be a good choice.  But it turned out to be just an "ok" choice that is not up the level of quality I expect from this hotel chain.  here's why:
+1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.
+2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!
+3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability...This is a new hotel, opened fairly recently, and since I have stayed in this hotel chain extensively around the country for my business and personal travel, I assumed it would be a good choice.  But it turned out to be just an "ok" choice that is not up the level of quality I expect from this hotel chain.  here's why:1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability from your hotel you should look elsewhere for your stay.4) Staff - Front desk staff is not well trained - had trouble getting our "priority club" accounts credtied for the stay, and had trouble with the billing and a few other requests - staff would not follow through on our requests despite repeated stops at the front desk to inquire about status of previous requests.However, on a positive note, we can say that the rooms are spacious and new (and generally clean with the exception of that rather horrific ceiling mold problem I mentioned earlier).  Parking is ample.  The business center has three "free" internet capable computers for guest use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r6504557-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>6504557</t>
+  </si>
+  <si>
+    <t>12/26/2006</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>I have stayed at several HI-Xpress during the past month, and this property is brand new.  I expected the best, but was very disappointed.  First of all, I did not book online and was given a "special" holiday rate of $10 more than the online rate.  When I questioned the clerk, she said that was standard and the rate I got was a great value ($81, go figure???).  The room was spacious and featured the new bedding and linens offered by many HI Express -- soooo nice.  But the magnetic door keys did not work and we had to have them replaced twice in one day.  Breakfast was the real disaster.  We went to the Coffee Bar at 7:30 a.m. (breakfast began serving @ 6 a.m.).  There were only 3 other people in the parlor.  There were no plates, no milk, no juice, the "signature" cinnamon rolls were so hard we could not eat them and threw them in the trash.  I asked the front desk (who happened to be reading a novel) to freshen the breakfast bar and all she did was put out more juice.  I really feel like we were cheated considering we had to leave the hotel and eat breakfast elsewhere.  There was only one bagel left, a couple slices of bread, and some over-ripe fruit.  Upon checkout, we had to again interrupt the same front desk clerk from reading her book to check out.  She...I have stayed at several HI-Xpress during the past month, and this property is brand new.  I expected the best, but was very disappointed.  First of all, I did not book online and was given a "special" holiday rate of $10 more than the online rate.  When I questioned the clerk, she said that was standard and the rate I got was a great value ($81, go figure???).  The room was spacious and featured the new bedding and linens offered by many HI Express -- soooo nice.  But the magnetic door keys did not work and we had to have them replaced twice in one day.  Breakfast was the real disaster.  We went to the Coffee Bar at 7:30 a.m. (breakfast began serving @ 6 a.m.).  There were only 3 other people in the parlor.  There were no plates, no milk, no juice, the "signature" cinnamon rolls were so hard we could not eat them and threw them in the trash.  I asked the front desk (who happened to be reading a novel) to freshen the breakfast bar and all she did was put out more juice.  I really feel like we were cheated considering we had to leave the hotel and eat breakfast elsewhere.  There was only one bagel left, a couple slices of bread, and some over-ripe fruit.  Upon checkout, we had to again interrupt the same front desk clerk from reading her book to check out.  She was not friendly, even when I apologized for interrupting her (ha!!).  I stay in LaPorte, TX often visiting family but will continue to stay at the Comfort Suites next door for a better value and full hot breakfast.  (Not to mention the better service from the front desk.)MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>I have stayed at several HI-Xpress during the past month, and this property is brand new.  I expected the best, but was very disappointed.  First of all, I did not book online and was given a "special" holiday rate of $10 more than the online rate.  When I questioned the clerk, she said that was standard and the rate I got was a great value ($81, go figure???).  The room was spacious and featured the new bedding and linens offered by many HI Express -- soooo nice.  But the magnetic door keys did not work and we had to have them replaced twice in one day.  Breakfast was the real disaster.  We went to the Coffee Bar at 7:30 a.m. (breakfast began serving @ 6 a.m.).  There were only 3 other people in the parlor.  There were no plates, no milk, no juice, the "signature" cinnamon rolls were so hard we could not eat them and threw them in the trash.  I asked the front desk (who happened to be reading a novel) to freshen the breakfast bar and all she did was put out more juice.  I really feel like we were cheated considering we had to leave the hotel and eat breakfast elsewhere.  There was only one bagel left, a couple slices of bread, and some over-ripe fruit.  Upon checkout, we had to again interrupt the same front desk clerk from reading her book to check out.  She...I have stayed at several HI-Xpress during the past month, and this property is brand new.  I expected the best, but was very disappointed.  First of all, I did not book online and was given a "special" holiday rate of $10 more than the online rate.  When I questioned the clerk, she said that was standard and the rate I got was a great value ($81, go figure???).  The room was spacious and featured the new bedding and linens offered by many HI Express -- soooo nice.  But the magnetic door keys did not work and we had to have them replaced twice in one day.  Breakfast was the real disaster.  We went to the Coffee Bar at 7:30 a.m. (breakfast began serving @ 6 a.m.).  There were only 3 other people in the parlor.  There were no plates, no milk, no juice, the "signature" cinnamon rolls were so hard we could not eat them and threw them in the trash.  I asked the front desk (who happened to be reading a novel) to freshen the breakfast bar and all she did was put out more juice.  I really feel like we were cheated considering we had to leave the hotel and eat breakfast elsewhere.  There was only one bagel left, a couple slices of bread, and some over-ripe fruit.  Upon checkout, we had to again interrupt the same front desk clerk from reading her book to check out.  She was not friendly, even when I apologized for interrupting her (ha!!).  I stay in LaPorte, TX often visiting family but will continue to stay at the Comfort Suites next door for a better value and full hot breakfast.  (Not to mention the better service from the front desk.)More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1363,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1395,2265 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>203</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" t="s">
+        <v>211</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>213</v>
+      </c>
+      <c r="X20" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" t="s">
+        <v>219</v>
+      </c>
+      <c r="L21" t="s">
+        <v>220</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>212</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s">
+        <v>227</v>
+      </c>
+      <c r="L22" t="s">
+        <v>228</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>229</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>230</v>
+      </c>
+      <c r="X22" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s">
+        <v>237</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>239</v>
+      </c>
+      <c r="X23" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>243</v>
+      </c>
+      <c r="J24" t="s">
+        <v>244</v>
+      </c>
+      <c r="K24" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>239</v>
+      </c>
+      <c r="X24" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>251</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>254</v>
+      </c>
+      <c r="O25" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>260</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>267</v>
+      </c>
+      <c r="J28" t="s">
+        <v>268</v>
+      </c>
+      <c r="K28" t="s">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s">
+        <v>270</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>295</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J33" t="s">
+        <v>299</v>
+      </c>
+      <c r="K33" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" t="s">
+        <v>305</v>
+      </c>
+      <c r="L34" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>133</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" t="s">
+        <v>312</v>
+      </c>
+      <c r="L35" t="s">
+        <v>313</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>314</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_338.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_338.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,105 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r611513382-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>631227</t>
+  </si>
+  <si>
+    <t>611513382</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Convenient and predictable !</t>
+  </si>
+  <si>
+    <t>I got what I paid for. A clean room with a decent night's sleep. They gave me a nice suite, 416, with a separate living room and bedroom. Pretty quiet, good location for my meetings in La Porte. I'll be back....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I got what I paid for. A clean room with a decent night's sleep. They gave me a nice suite, 416, with a separate living room and bedroom. Pretty quiet, good location for my meetings in La Porte. I'll be back....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r569481784-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>569481784</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>We have stayed here 2 times now! Both times have been awesome! The room 401 is huge and perfect for a large family! Room was clean. Beds were comfy. Such a quiet room! And front desk clerk was the best we’ve ever talked to! Went out of her way to make sure everything was good for our stay! Wish all hotels were like this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed here 2 times now! Both times have been awesome! The room 401 is huge and perfect for a large family! Room was clean. Beds were comfy. Such a quiet room! And front desk clerk was the best we’ve ever talked to! Went out of her way to make sure everything was good for our stay! Wish all hotels were like this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r600751623-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>600751623</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Nice Quiet Stay</t>
+  </si>
+  <si>
+    <t>We had a nice comfortable stay here. It was a 5-10 minute drive into Kemah and 45-60 minutes to Galveston depending on traffic. The hotel is off the freeway but quiet inside. It has 4 floors and one elevator. The ice machine was broken on the 4th floor but the ice machines on the other floors worked. The coffee pot outlet had tripped so it took a while to get the coffee going. Breakfast was a small clean room with pastries, a pancake maker, and your standard continental fare items. Parking was well lit and we always felt safe. It was a perfect place to lay our head after a busy day out at the beach. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>HIE L, Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>We had a nice comfortable stay here. It was a 5-10 minute drive into Kemah and 45-60 minutes to Galveston depending on traffic. The hotel is off the freeway but quiet inside. It has 4 floors and one elevator. The ice machine was broken on the 4th floor but the ice machines on the other floors worked. The coffee pot outlet had tripped so it took a while to get the coffee going. Breakfast was a small clean room with pastries, a pancake maker, and your standard continental fare items. Parking was well lit and we always felt safe. It was a perfect place to lay our head after a busy day out at the beach. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r565481532-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>631227</t>
-  </si>
-  <si>
     <t>565481532</t>
   </si>
   <si>
@@ -174,9 +261,6 @@
     <t>My husband and I stayed for an event that was nearby at Sylvan Beach.  The manager had a very friendly greeting and checked-us in.  The other staff encounters were equally friendly and helpful.  The rooms were clean and in good condition. It is a good standard hotel with reasonable prices.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
@@ -207,9 +291,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded March 3, 2018</t>
   </si>
   <si>
@@ -246,6 +327,60 @@
     <t>This was a nice hotel- typical Holiday Inn Express. Everything you'd expect.Not amazing, but a good place to stay, fair price, clean, very nice staff. Check in was quick and efficient. Room was as expected (no upgrade for Platinum status but not really needed, so no big deal). Happy with the stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r519104185-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>519104185</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Heartless</t>
+  </si>
+  <si>
+    <t>Avoid this place if you need a place to stay away from Hurricane Harvey.  They will not allow pets in and are charging taxes.  The governor of Texas lifted hotel tax for the state, but apparently these guys need to line their pockets a bit more.  I have traveled for business and personal and have stayed at Holiday Inn properties well over 20 times.  That is not much, but there will be no further business from me for this hotel brand and especially never at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Avoid this place if you need a place to stay away from Hurricane Harvey.  They will not allow pets in and are charging taxes.  The governor of Texas lifted hotel tax for the state, but apparently these guys need to line their pockets a bit more.  I have traveled for business and personal and have stayed at Holiday Inn properties well over 20 times.  That is not much, but there will be no further business from me for this hotel brand and especially never at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r507606399-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>507606399</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Great and enjoyable</t>
+  </si>
+  <si>
+    <t>My family stayed there on the 27th-29th on July the manager and the staff were so friendly and helpful. They had homemade cookies made we couldnt pass up. Room was spacious and beds were comfortable. Breakfast was good and the youngest enjoyed it. Front desk was always willing to answer any questions and attentive of anything you needed such as extra towels. Reasonably priced and will definitely choose this hotel in the future when planning to vacation this direction again. Thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>My family stayed there on the 27th-29th on July the manager and the staff were so friendly and helpful. They had homemade cookies made we couldnt pass up. Room was spacious and beds were comfortable. Breakfast was good and the youngest enjoyed it. Front desk was always willing to answer any questions and attentive of anything you needed such as extra towels. Reasonably priced and will definitely choose this hotel in the future when planning to vacation this direction again. Thank you for a great stay!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r495325102-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -321,6 +456,60 @@
     <t>The rooms were clean and spacious. Hot breakfast in the morning with plenty of space for patrons. Food was eggs, sausage, pancakes, and everything else you normally might have. Smooth and courteous process at check in and check out. Good location and easy to get to from Highway 146. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r355663308-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>355663308</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Pre/Post Cruise</t>
+  </si>
+  <si>
+    <t>Stayed with these folks before and after our recent cruise.  The pool, gym, and breakfast were pretty standard but the rooms were huge and the staff was some of the friendliest, most helpful we have encountered.  They made good suggestions of what to do and where to go while we were in town, gave us a place to store our luggage while our rooms were being prepared, and helped us make transportation arrangements to and from the port and around town.  Awesome people!  The only con was the breakfast area was difficult to navigate due to the lack of counter space near the food - you really need 3 hands to hold the food lid open, hold your plate, and serve yourself - after 14 days of cruise buffets some may consider this a plus:-)  In addition, they have a 24 hour coffee bar which we no longer take for granted (thanks HH).MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Stayed with these folks before and after our recent cruise.  The pool, gym, and breakfast were pretty standard but the rooms were huge and the staff was some of the friendliest, most helpful we have encountered.  They made good suggestions of what to do and where to go while we were in town, gave us a place to store our luggage while our rooms were being prepared, and helped us make transportation arrangements to and from the port and around town.  Awesome people!  The only con was the breakfast area was difficult to navigate due to the lack of counter space near the food - you really need 3 hands to hold the food lid open, hold your plate, and serve yourself - after 14 days of cruise buffets some may consider this a plus:-)  In addition, they have a 24 hour coffee bar which we no longer take for granted (thanks HH).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r347770566-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>347770566</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>So expressed and would certainly stay there again</t>
+  </si>
+  <si>
+    <t>The hotel must be very new.  The rooms are large with extra sitting area. Perfect for my family.  Big scene TV and very nicely designed.  The lady who checked us in at the front desk was so very kind and helpful.  I would certainly stay here again.  The breakfast area is beautiful done and very clean also a very nice selection for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>HIE L, Loyalty Champion at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>The hotel must be very new.  The rooms are large with extra sitting area. Perfect for my family.  Big scene TV and very nicely designed.  The lady who checked us in at the front desk was so very kind and helpful.  I would certainly stay here again.  The breakfast area is beautiful done and very clean also a very nice selection for breakfast.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r346689523-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -399,6 +588,57 @@
     <t>We stayed here one night while passing through on vacation.  The building was quiet, easily accessible from the highway, clean, and the impressive room was basically a mini-suite with kitchenette and small table,  seating area, bed and bath. Free WiFi, continental breakfast. Had some doubts at first as our reservation had been lost and it took a while to fix that issue and check in. All was well in the end, though.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r324016378-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>324016378</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Decent stay, pleasant staff</t>
+  </si>
+  <si>
+    <t>4th floor room was clean but carpet was in need of replacement. Dark stain by the window and stains where it looks like the furniture was rearranged, you could see dark outline stains around where all the furniture used to be. Room was very spacious and had a nice LG TV. I appreciated the fact that they had an Ethernet port connectivity option, I carry a cable and used the Ethernet connection which was very reliable. I was able to easily connect to work through our VPN and had no issues at all. Breakfast was decent, tried the omelet and turkey sausage the first morning (not recommended at all), decided for the second morning to stick with more reliable selections, oatmeal, toast, yogurt, bacon was decent.No restaurants very close by to walk to that I saw, Whataburger was about the closest I think. Hotel is in an odd location, seemed to be mostly surrounded by light business and some residential.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>4th floor room was clean but carpet was in need of replacement. Dark stain by the window and stains where it looks like the furniture was rearranged, you could see dark outline stains around where all the furniture used to be. Room was very spacious and had a nice LG TV. I appreciated the fact that they had an Ethernet port connectivity option, I carry a cable and used the Ethernet connection which was very reliable. I was able to easily connect to work through our VPN and had no issues at all. Breakfast was decent, tried the omelet and turkey sausage the first morning (not recommended at all), decided for the second morning to stick with more reliable selections, oatmeal, toast, yogurt, bacon was decent.No restaurants very close by to walk to that I saw, Whataburger was about the closest I think. Hotel is in an odd location, seemed to be mostly surrounded by light business and some residential.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r316877993-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>316877993</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Customer service</t>
+  </si>
+  <si>
+    <t>I recently inquired about a room for family members. The customer service &amp; professionalism I received from Prinisha Bhatt, the manager, was incredible! She recommended fun things to do in the area as well as tasty restaurants. I will recommend this hotel to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>I recently inquired about a room for family members. The customer service &amp; professionalism I received from Prinisha Bhatt, the manager, was incredible! She recommended fun things to do in the area as well as tasty restaurants. I will recommend this hotel to others!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r305865894-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -417,9 +657,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded September 3, 2015</t>
   </si>
   <si>
@@ -480,6 +717,54 @@
     <t>We had a great stay here. The rooms were very clean, comfortable and quite. The management and staff here do an excellent job. Very good breakfast options, with choice of bacon, eggs, sausage gravy and biscuits, good pastries and even a pancake machine. Good location close to Kemah, Nasa, San Jacinto, and Galveston. Will definitely stay here on our next trip to the Houston area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r283263951-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>283263951</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel on the way to Houston. We found a well run, clean, welcoming hotel. The employees made sure we have everything we need; we found them generous and nice. Great yummy breakfast we some "to go" items. Loved the pancakes machine!!!!! If in the area, we will definitely stay again. Forgot to mention.... Great outdoor pool! MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, General Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel on the way to Houston. We found a well run, clean, welcoming hotel. The employees made sure we have everything we need; we found them generous and nice. Great yummy breakfast we some "to go" items. Loved the pancakes machine!!!!! If in the area, we will definitely stay again. Forgot to mention.... Great outdoor pool! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r281374991-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>281374991</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Good location, very clean</t>
+  </si>
+  <si>
+    <t>Very clean and the staff was very friendly. I'm not sure if it was new our recently updated, but everything was fresh. It was definitely the best hotel in that area. Convenient to Main street with it's little shops and the "box strip"  with some big name box stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Very clean and the staff was very friendly. I'm not sure if it was new our recently updated, but everything was fresh. It was definitely the best hotel in that area. Convenient to Main street with it's little shops and the "box strip"  with some big name box stores.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r280655306-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -558,6 +843,57 @@
     <t>We picked this hotel due to pricing and location. The price is a bit high, but our room was very nice. The location was a surprise as it is located in a very commercial area but right off highway 146. Close to Johnson Space Center and other activities we planned.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r263484173-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>263484173</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Very friendly staff, good rooms</t>
+  </si>
+  <si>
+    <t>I was impressed with the staff in this hotel. I stayed a couple of nights in other hotels in the vicinity but this staff really stood out with their friendliness and service level, a big thumbs up! The laundry service is outstanding and reasonably priced. The hotel and rooms are clean, beds are nice and firm. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>HIE L, General Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>I was impressed with the staff in this hotel. I stayed a couple of nights in other hotels in the vicinity but this staff really stood out with their friendliness and service level, a big thumbs up! The laundry service is outstanding and reasonably priced. The hotel and rooms are clean, beds are nice and firm. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r254288507-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>254288507</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed here one evening.   This is a very clean very friendly IGH property.   They have a very nice continental breakfast.  The only downside is like a lot of properties-only one elevator.    You will need to plan for a cab if you need to get lunch or dinner but there are fairly close eateries. MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here one evening.   This is a very clean very friendly IGH property.   They have a very nice continental breakfast.  The only downside is like a lot of properties-only one elevator.    You will need to plan for a cab if you need to get lunch or dinner but there are fairly close eateries. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r254109393-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -576,12 +912,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded February 16, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 16, 2015</t>
-  </si>
-  <si>
     <t>We stayed here for the night before our cruise. Room is spacious. All the staff is very accommodating and pleasant. Breakfast was your standard holiday inn express morning breakfast but the pancakes were a nice addition along with Greek Yogurt! The eggs, sausage, and biscuits and gravy were just barely warm even though it was only 7am. Very nice eating area though. Overall we're very pleased! Would stay here again! $10 shuttle to the port in the morning!More</t>
   </si>
   <si>
@@ -639,6 +969,57 @@
     <t>We stayed at this hotel because we were in town for a half marathon. We were pleasantly surprised with a room upgrade. Our room was so nice!  It was large and had a living area and full kitchen. The room was clean and comfortable. If we are in the are again, this will be our hotel for sure. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r238034230-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>238034230</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Really nice outdoor pool where you can just sit and relax in the Texas sun or take a dip, clean rooms with a nice kitchenette, excellent staff, really helpful,  breakfast was good, would not hesitate to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Really nice outdoor pool where you can just sit and relax in the Texas sun or take a dip, clean rooms with a nice kitchenette, excellent staff, really helpful,  breakfast was good, would not hesitate to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r216696427-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>216696427</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>This place is amazing!!!!</t>
+  </si>
+  <si>
+    <t>We stayed the weekend.  The room was beyound what we expected and the price was amazing.  The staff, all of them, were so courteous and helpful.  They were all very tenative to the staff's needs.  They made their quest feel very welcome and special.  The breakfast was amazing.  I will recommend this hotel to everyone and will be stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>HIE L, Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>We stayed the weekend.  The room was beyound what we expected and the price was amazing.  The staff, all of them, were so courteous and helpful.  They were all very tenative to the staff's needs.  They made their quest feel very welcome and special.  The breakfast was amazing.  I will recommend this hotel to everyone and will be stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r214955565-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -717,6 +1098,54 @@
     <t>We are here on business and our stay has been nice. The rooms are very clean andthe bedding is changed daily. The staff is friendly and helpful. I would stay here again.Thanks for making us feel at home.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r206256292-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>206256292</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>Great Customer Service and Give an A+</t>
+  </si>
+  <si>
+    <t>I could not find one thing I did not like about this hotel. Lady at check-in Shamin was excellent and made you feel really welcome and make you want to stay there. Had a nice breakfast layout. I highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>HIE L, Front Office Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>I could not find one thing I did not like about this hotel. Lady at check-in Shamin was excellent and made you feel really welcome and make you want to stay there. Had a nice breakfast layout. I highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r205011452-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>205011452</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>Stress free stay</t>
+  </si>
+  <si>
+    <t>We switched to this hotel after ditching our reservation at another local hotel  after a terrible experience (see my review of the Days Inn).  The rate was higher than I wanted to pay but was able to save a few bucks with my AAA card.  Overall we felt safer and the rooms were much nicer and very clean.  The staff was fantastic and as an IHG member we were treated like royalty.  Breakfast was perfect and we found everything we needed.  The room was large and ours faced the 146 highway but we didn't hear the traffic over the hum of the air conditioner.  The beds were comfortable and we had a choice of soft or firm pillows.  Our room contained a small area with a kitchen sink, good size refrigerator, and microwave, including a few utensils and plates.We didn't get into the small pool but it looked refreshing enough for a dip if they would regularly clean the bugs and garbage that had blown into it.  There was ample parking and were always greeted as we entered the lobby.All and all, this was a great stay and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We switched to this hotel after ditching our reservation at another local hotel  after a terrible experience (see my review of the Days Inn).  The rate was higher than I wanted to pay but was able to save a few bucks with my AAA card.  Overall we felt safer and the rooms were much nicer and very clean.  The staff was fantastic and as an IHG member we were treated like royalty.  Breakfast was perfect and we found everything we needed.  The room was large and ours faced the 146 highway but we didn't hear the traffic over the hum of the air conditioner.  The beds were comfortable and we had a choice of soft or firm pillows.  Our room contained a small area with a kitchen sink, good size refrigerator, and microwave, including a few utensils and plates.We didn't get into the small pool but it looked refreshing enough for a dip if they would regularly clean the bugs and garbage that had blown into it.  There was ample parking and were always greeted as we entered the lobby.All and all, this was a great stay and I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r203706299-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -759,9 +1188,6 @@
     <t>This is where I stay every time I come to La Porte.  Its nothing fancy, but it's clean, roomy, bright. I like the location--right across the way from the Kroger. I haven't stayed in the other La Porte hotels because I'm satisfied with this one.MoreShow less</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>This is where I stay every time I come to La Porte.  Its nothing fancy, but it's clean, roomy, bright. I like the location--right across the way from the Kroger. I haven't stayed in the other La Porte hotels because I'm satisfied with this one.More</t>
   </si>
   <si>
@@ -783,6 +1209,64 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r160623007-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>160623007</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Excellent stay, great value</t>
+  </si>
+  <si>
+    <t>Totally impressed with the size and cleanliness of the hotel.  Everything is new, the staff was excellent and congenial.  Breakfast was great and breakfast area was excellent.Review would have been 5 star except for 2 items.  Both items can be and was worked around.  The first was the set up of the closet.  Clothes rod was just above room safe and didn't give enough room to hang up clothes.  There is a shelf midway up holding bedding for the couch-pullout.  The easy fix would be swap the position of the clothes rod and shelf.  The other complaint would be not enough counter space around the sink in the bathroom.  This was worked around without too much of a problem, but...  This is not an easy fix, but would have to be addressed when hotel was built.  The Bath is huge, but the placement of toilet beside sink, doesn't allow for larger counter...These problems are not enough to keep this hotel from being an excellent stay and value.  I WILL stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Totally impressed with the size and cleanliness of the hotel.  Everything is new, the staff was excellent and congenial.  Breakfast was great and breakfast area was excellent.Review would have been 5 star except for 2 items.  Both items can be and was worked around.  The first was the set up of the closet.  Clothes rod was just above room safe and didn't give enough room to hang up clothes.  There is a shelf midway up holding bedding for the couch-pullout.  The easy fix would be swap the position of the clothes rod and shelf.  The other complaint would be not enough counter space around the sink in the bathroom.  This was worked around without too much of a problem, but...  This is not an easy fix, but would have to be addressed when hotel was built.  The Bath is huge, but the placement of toilet beside sink, doesn't allow for larger counter...These problems are not enough to keep this hotel from being an excellent stay and value.  I WILL stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r158350897-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>158350897</t>
+  </si>
+  <si>
+    <t>04/21/2013</t>
+  </si>
+  <si>
+    <t>Huge room and typically good Holiday Inn breakfast bar</t>
+  </si>
+  <si>
+    <t>Not having been to Houston before, I was unprepared for the bleakness of La Porte, a flat, desolate area where the wind direction dictated whether you would be inhaling hydrocarbons or not. If I didn't have business at the port I'd have kept on driving!
+But the Holiday Inn was as expected...a few stories high, no problems with parking and a breakfast bar that included cereal, yoghurt and fresh fruit amongst the sausages and muffins.
+My room was a complete surprise, though. I know it says "suites" in the name, but I have rented one-bedroom apartments that were smaller. The couch and flat panel tv in the lounge were definitely 'full size' and it was nice to stretch out and watch a hotel movie on a decent screen for a change. Even better, I did not hear the neighbours once, which is very unusual for any hotel (and I had them, I saw Mister Neighbour go into his room one evening).
+Now despite all this space, the bedroom itself was meagre in comparison to the full sized kitchen and lounge area. My suitcase was OK over on the other side of the room, but if I'd had a partner one of us would have been tripping over it getting to the bed.
+Similarly with the bathroom, which was a pretty normal size for a bathroom but felt cramped after the acres out in the lounge.
+In truth, all that space...Not having been to Houston before, I was unprepared for the bleakness of La Porte, a flat, desolate area where the wind direction dictated whether you would be inhaling hydrocarbons or not. If I didn't have business at the port I'd have kept on driving!But the Holiday Inn was as expected...a few stories high, no problems with parking and a breakfast bar that included cereal, yoghurt and fresh fruit amongst the sausages and muffins.My room was a complete surprise, though. I know it says "suites" in the name, but I have rented one-bedroom apartments that were smaller. The couch and flat panel tv in the lounge were definitely 'full size' and it was nice to stretch out and watch a hotel movie on a decent screen for a change. Even better, I did not hear the neighbours once, which is very unusual for any hotel (and I had them, I saw Mister Neighbour go into his room one evening).Now despite all this space, the bedroom itself was meagre in comparison to the full sized kitchen and lounge area. My suitcase was OK over on the other side of the room, but if I'd had a partner one of us would have been tripping over it getting to the bed.Similarly with the bathroom, which was a pretty normal size for a bathroom but felt cramped after the acres out in the lounge.In truth, all that space was wasted on me and I rattled around a bit, but I'm certainly not complaining!So, those were the good points. The bad points were that there is nothing within walking distance - and not much in the way of footpaths that I saw - so you will need a car to get around. And I had to leave for an early flight and when I hit the shower at 4:10am there was no hot water. Lucky that even in April Texas is still pretty warm. Worse for me, and very inexplicable, after I came back to the room on my second day, the bedroom smelled moldy. It is a pet hate of mine and I found it very strange because there was no hint of this when I checked in.And why do American hotels persist with those in-window air con units? OK, it's not quite in-window at this Holiday Inn, but it's still a direct conduit to the noise of the 146 that was just outside my bedroom. And they are noisy, even on the 'low' fan setting, so I suffered being warm rather than risk industrial deafness running the blower a few feet from my ears all night.Still, our current project makes revisiting La Porte likely and if so I'll be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites La Porte, responded to this reviewResponded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2013</t>
+  </si>
+  <si>
+    <t>Not having been to Houston before, I was unprepared for the bleakness of La Porte, a flat, desolate area where the wind direction dictated whether you would be inhaling hydrocarbons or not. If I didn't have business at the port I'd have kept on driving!
+But the Holiday Inn was as expected...a few stories high, no problems with parking and a breakfast bar that included cereal, yoghurt and fresh fruit amongst the sausages and muffins.
+My room was a complete surprise, though. I know it says "suites" in the name, but I have rented one-bedroom apartments that were smaller. The couch and flat panel tv in the lounge were definitely 'full size' and it was nice to stretch out and watch a hotel movie on a decent screen for a change. Even better, I did not hear the neighbours once, which is very unusual for any hotel (and I had them, I saw Mister Neighbour go into his room one evening).
+Now despite all this space, the bedroom itself was meagre in comparison to the full sized kitchen and lounge area. My suitcase was OK over on the other side of the room, but if I'd had a partner one of us would have been tripping over it getting to the bed.
+Similarly with the bathroom, which was a pretty normal size for a bathroom but felt cramped after the acres out in the lounge.
+In truth, all that space...Not having been to Houston before, I was unprepared for the bleakness of La Porte, a flat, desolate area where the wind direction dictated whether you would be inhaling hydrocarbons or not. If I didn't have business at the port I'd have kept on driving!But the Holiday Inn was as expected...a few stories high, no problems with parking and a breakfast bar that included cereal, yoghurt and fresh fruit amongst the sausages and muffins.My room was a complete surprise, though. I know it says "suites" in the name, but I have rented one-bedroom apartments that were smaller. The couch and flat panel tv in the lounge were definitely 'full size' and it was nice to stretch out and watch a hotel movie on a decent screen for a change. Even better, I did not hear the neighbours once, which is very unusual for any hotel (and I had them, I saw Mister Neighbour go into his room one evening).Now despite all this space, the bedroom itself was meagre in comparison to the full sized kitchen and lounge area. My suitcase was OK over on the other side of the room, but if I'd had a partner one of us would have been tripping over it getting to the bed.Similarly with the bathroom, which was a pretty normal size for a bathroom but felt cramped after the acres out in the lounge.In truth, all that space was wasted on me and I rattled around a bit, but I'm certainly not complaining!So, those were the good points. The bad points were that there is nothing within walking distance - and not much in the way of footpaths that I saw - so you will need a car to get around. And I had to leave for an early flight and when I hit the shower at 4:10am there was no hot water. Lucky that even in April Texas is still pretty warm. Worse for me, and very inexplicable, after I came back to the room on my second day, the bedroom smelled moldy. It is a pet hate of mine and I found it very strange because there was no hint of this when I checked in.And why do American hotels persist with those in-window air con units? OK, it's not quite in-window at this Holiday Inn, but it's still a direct conduit to the noise of the 146 that was just outside my bedroom. And they are noisy, even on the 'low' fan setting, so I suffered being warm rather than risk industrial deafness running the blower a few feet from my ears all night.Still, our current project makes revisiting La Porte likely and if so I'll be staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r157821005-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -798,9 +1282,6 @@
     <t>We stopped over in La Porte on our drive from Texas back to Georgia because we wanted to visit San Jacinto and the Battleship Texas. The hotel was nice and clean. We got the apartment-style room which was humongous. The breakfast was good and the staff were nice.</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r148049758-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -834,6 +1315,42 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r132781315-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>132781315</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Room was clean and new. Area is so so but did not feel unsafe. Pool is small but clean. Breakfast good. Front desk staff very helpful gave directions and ideas freely. Wonderful stay would stay again when back in town!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r129267013-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>129267013</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Cindy - This is. wonderful Place to stay!!,</t>
+  </si>
+  <si>
+    <t>We have stayed here many many times!! Our stay has always been wonderful and the staff is very friendly and helpful!! In fact they have always treated us like Family!! It is very clean and the Breakfast is excellent!! It is very close to many attractions and Is a good central location, or home base!!  We always feel safe and have never had to worry about our car or ourselves!!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r126423869-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -886,6 +1403,45 @@
   </si>
   <si>
     <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r94927397-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>94927397</t>
+  </si>
+  <si>
+    <t>01/30/2011</t>
+  </si>
+  <si>
+    <t>The Staff was very nice and accomodating</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Holiday Inn Express in La Porte.  The lady at the front desk was very nice and helpful.  The room was large and roomy.  The sheets on the bed were very nice.  Ok, the problem we had was that there was a dirty plate in the sink of the room we checked in.  It turns out that the cleaning crew had showed up late and must have rushed through cleaning the room.  As soon as we told the lady at the front desk, she volunteered to do something, but everything else was fine and we were on the way out and just didn't want someone going in the room or hassle with changing rooms.  So, even though there was a little problem with the room, they were very friendly about it. Whoever runs the breakfast bar must be dense.  The biscuits were literally hard as rocks.  They could not be bitten and when we threw them away, there was a loud thunk!  The gravy was as thin as water.  How could these people NOT KNOW that this is ridiculous.  I choose this hotel because it was an Express.  I always choose to stay in an Express hotel.  Everything else in the breakfast was good.I would stay at this hotel again, mainly because the lady at the front desk was awesome.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Holiday Inn Express in La Porte.  The lady at the front desk was very nice and helpful.  The room was large and roomy.  The sheets on the bed were very nice.  Ok, the problem we had was that there was a dirty plate in the sink of the room we checked in.  It turns out that the cleaning crew had showed up late and must have rushed through cleaning the room.  As soon as we told the lady at the front desk, she volunteered to do something, but everything else was fine and we were on the way out and just didn't want someone going in the room or hassle with changing rooms.  So, even though there was a little problem with the room, they were very friendly about it. Whoever runs the breakfast bar must be dense.  The biscuits were literally hard as rocks.  They could not be bitten and when we threw them away, there was a loud thunk!  The gravy was as thin as water.  How could these people NOT KNOW that this is ridiculous.  I choose this hotel because it was an Express.  I always choose to stay in an Express hotel.  Everything else in the breakfast was good.I would stay at this hotel again, mainly because the lady at the front desk was awesome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r12561440-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>12561440</t>
+  </si>
+  <si>
+    <t>01/12/2008</t>
+  </si>
+  <si>
+    <t>Make a Reservation!!!</t>
+  </si>
+  <si>
+    <t>Nish, the manager, and his staff are very accomodating!! The hotel is vibrant with guests checking in and out and is also a great networking place for cruisegoing guests. The rooms are cozy and comfortable. Did I mention that the hotel is 20 minutes from one of the most cosmopolitan cities in the US?</t>
+  </si>
+  <si>
+    <t>January 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r10207782-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
@@ -949,6 +1505,51 @@
 1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.
 2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!
 3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability...This is a new hotel, opened fairly recently, and since I have stayed in this hotel chain extensively around the country for my business and personal travel, I assumed it would be a good choice.  But it turned out to be just an "ok" choice that is not up the level of quality I expect from this hotel chain.  here's why:1) The breakfast buffet is poorly stocked - every morning of our multi-night stay we found that the food was depleted and was not refreshed/restocked in the half hour we were sitting at breakfast.  Some monrings there was no juice, two mornings there were no eggs or yogurt, most monring there was little or no fresh fruit.  And one morning the famous "cinnamon rolls" were so stale they were inedible and we tossed them in the trashcan and headed out for breakfast elsewhere.2) Mold - Our bathroom had a major mold colony growing on the ceiling - not something we would expect from a new hotel!  Yikes!3) The "free" Wireless Internet Service to the guestrooms is iffy - I was here with a group of businness colleagues, and we tried using our wireless laptops from three different guest rooms (on different floors) and the signal was weak and would cut in and out in every room we tried - in a new hotel you expect better wireless internet service.  If you need a good wireless internet capability from your hotel you should look elsewhere for your stay.4) Staff - Front desk staff is not well trained - had trouble getting our "priority club" accounts credtied for the stay, and had trouble with the billing and a few other requests - staff would not follow through on our requests despite repeated stops at the front desk to inquire about status of previous requests.However, on a positive note, we can say that the rooms are spacious and new (and generally clean with the exception of that rather horrific ceiling mold problem I mentioned earlier).  Parking is ample.  The business center has three "free" internet capable computers for guest use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r7775040-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>7775040</t>
+  </si>
+  <si>
+    <t>06/04/2007</t>
+  </si>
+  <si>
+    <t>Wow... the BEST Holiday Inn Express I have ever been to!!!</t>
+  </si>
+  <si>
+    <t>I have got to say that I have been to many other Holiday Inns and Holiday Inn Express hotels, but this was THE BEST one by far. This is a new property and you can tell by the modern day design of the interior. When you walk in the hotel at the entrance, you are greeted by kind, friendly, and very welcoming employees to the right and a nice television to watch to the left. I had breakfast each of the five mornings of my stay and was delighted with the selection. The cinnamon rolls were delicious, the cereal was excellent, and the variety of juices was very satisfying. The rooms were wonderful. This hotel has the new Holiday Inn beds, which are very comfortable. The interior of the room was very very spacious. I was told they have a suite that has a pullout with a separate bedroom, so this would have also been ideal if I were travelling with the family! There was a full kitchen with a stove, cabinets, and full size refrigerator! Great for lengthy stays like the one I had! There's a pool, jacuzzi, sports room, meeting room, and a business center with 3 desktop computers and one laser printer. If you're ever hungry for a snack, there's a gift shop next to the front desk which has ice cream, chips, chocolate, snacks, and a wide variety of chilled drinks! The housekeepers did a wonderful...I have got to say that I have been to many other Holiday Inns and Holiday Inn Express hotels, but this was THE BEST one by far. This is a new property and you can tell by the modern day design of the interior. When you walk in the hotel at the entrance, you are greeted by kind, friendly, and very welcoming employees to the right and a nice television to watch to the left. I had breakfast each of the five mornings of my stay and was delighted with the selection. The cinnamon rolls were delicious, the cereal was excellent, and the variety of juices was very satisfying. The rooms were wonderful. This hotel has the new Holiday Inn beds, which are very comfortable. The interior of the room was very very spacious. I was told they have a suite that has a pullout with a separate bedroom, so this would have also been ideal if I were travelling with the family! There was a full kitchen with a stove, cabinets, and full size refrigerator! Great for lengthy stays like the one I had! There's a pool, jacuzzi, sports room, meeting room, and a business center with 3 desktop computers and one laser printer. If you're ever hungry for a snack, there's a gift shop next to the front desk which has ice cream, chips, chocolate, snacks, and a wide variety of chilled drinks! The housekeepers did a wonderful job cleaning up. I never felt disappointed with my stay and would definitely recommend this hotel to anyone! I was well rested and relaxed at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>I have got to say that I have been to many other Holiday Inns and Holiday Inn Express hotels, but this was THE BEST one by far. This is a new property and you can tell by the modern day design of the interior. When you walk in the hotel at the entrance, you are greeted by kind, friendly, and very welcoming employees to the right and a nice television to watch to the left. I had breakfast each of the five mornings of my stay and was delighted with the selection. The cinnamon rolls were delicious, the cereal was excellent, and the variety of juices was very satisfying. The rooms were wonderful. This hotel has the new Holiday Inn beds, which are very comfortable. The interior of the room was very very spacious. I was told they have a suite that has a pullout with a separate bedroom, so this would have also been ideal if I were travelling with the family! There was a full kitchen with a stove, cabinets, and full size refrigerator! Great for lengthy stays like the one I had! There's a pool, jacuzzi, sports room, meeting room, and a business center with 3 desktop computers and one laser printer. If you're ever hungry for a snack, there's a gift shop next to the front desk which has ice cream, chips, chocolate, snacks, and a wide variety of chilled drinks! The housekeepers did a wonderful...I have got to say that I have been to many other Holiday Inns and Holiday Inn Express hotels, but this was THE BEST one by far. This is a new property and you can tell by the modern day design of the interior. When you walk in the hotel at the entrance, you are greeted by kind, friendly, and very welcoming employees to the right and a nice television to watch to the left. I had breakfast each of the five mornings of my stay and was delighted with the selection. The cinnamon rolls were delicious, the cereal was excellent, and the variety of juices was very satisfying. The rooms were wonderful. This hotel has the new Holiday Inn beds, which are very comfortable. The interior of the room was very very spacious. I was told they have a suite that has a pullout with a separate bedroom, so this would have also been ideal if I were travelling with the family! There was a full kitchen with a stove, cabinets, and full size refrigerator! Great for lengthy stays like the one I had! There's a pool, jacuzzi, sports room, meeting room, and a business center with 3 desktop computers and one laser printer. If you're ever hungry for a snack, there's a gift shop next to the front desk which has ice cream, chips, chocolate, snacks, and a wide variety of chilled drinks! The housekeepers did a wonderful job cleaning up. I never felt disappointed with my stay and would definitely recommend this hotel to anyone! I was well rested and relaxed at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r6647865-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>6647865</t>
+  </si>
+  <si>
+    <t>01/22/2007</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I am a local resident of La Porte, and sad to say I do get into many aguement with my spouse.  I do not feel the need to stay at my own house, during our arguements, so I usually stay at the Comfort Suites of La Porte.  Well now the new Holiday Inn Express La Porte, recently opened, so I thought that I would give them a shot.  I did not have a reservation, but the desk attendant did welcome me in with a Corporate rate since I am employed at a company near by.  I would like to praise the desk because they always keep my room number and information private even when my spouse comes in looking for me.  Also, the desk attendants were there whenever I need to get anything done, I originally planned on staying for 1 day and ended up staying for 2.  The breakfast was your basic breakfast but I have no complaints.  The in-door spa was relaxing, it was way to cold to use the pool, even though it was not the biggest pool.  The room was spacious, and had beautiful furniture, with a flat screen tv.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I am a local resident of La Porte, and sad to say I do get into many aguement with my spouse.  I do not feel the need to stay at my own house, during our arguements, so I usually stay at the Comfort Suites of La Porte.  Well now the new Holiday Inn Express La Porte, recently opened, so I thought that I would give them a shot.  I did not have a reservation, but the desk attendant did welcome me in with a Corporate rate since I am employed at a company near by.  I would like to praise the desk because they always keep my room number and information private even when my spouse comes in looking for me.  Also, the desk attendants were there whenever I need to get anything done, I originally planned on staying for 1 day and ended up staying for 2.  The breakfast was your basic breakfast but I have no complaints.  The in-door spa was relaxing, it was way to cold to use the pool, even though it was not the biggest pool.  The room was spacious, and had beautiful furniture, with a flat screen tv.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d631227-r6504557-Holiday_Inn_Express_Hotel_Suites_La_Porte-La_Porte_Texas.html</t>
@@ -1515,12 +2116,12 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1569,13 +2170,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1587,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1609,47 +2210,41 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1697,21 +2292,19 @@
         <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
@@ -1764,13 +2357,13 @@
         <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1782,13 +2375,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1813,39 +2406,49 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -1861,7 +2464,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1870,47 +2473,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -1926,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1935,43 +2540,47 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1987,7 +2596,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1996,43 +2605,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2048,7 +2663,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2057,49 +2672,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>133</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -2115,7 +2724,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2124,16 +2733,16 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2150,13 +2759,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2172,7 +2781,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2181,47 +2790,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Y13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
@@ -2237,7 +2846,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2246,47 +2855,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -2302,7 +2911,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2311,39 +2920,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
+      <c r="N15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
@@ -2359,7 +2976,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2368,49 +2985,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -2426,7 +3037,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2435,25 +3046,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2465,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -2487,7 +3098,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2496,43 +3107,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
-      <c r="P18" t="s"/>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -2548,7 +3163,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2557,25 +3172,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2630,25 +3245,25 @@
         <v>211</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
         <v>212</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2699,12 +3314,8 @@
       <c r="M21" t="n">
         <v>5</v>
       </c>
-      <c r="N21" t="s">
-        <v>212</v>
-      </c>
-      <c r="O21" t="s">
-        <v>63</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
@@ -2764,23 +3375,17 @@
         <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2831,39 +3436,25 @@
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
         <v>238</v>
       </c>
-      <c r="O23" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>239</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>240</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="24">
@@ -2879,59 +3470,45 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>242</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>243</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>244</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>245</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>246</v>
       </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="X24" t="s">
         <v>247</v>
-      </c>
-      <c r="O24" t="s">
-        <v>133</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>239</v>
-      </c>
-      <c r="X24" t="s">
-        <v>240</v>
       </c>
       <c r="Y24" t="s">
         <v>248</v>
@@ -2971,37 +3548,35 @@
         <v>253</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
         <v>254</v>
       </c>
       <c r="O25" t="s">
-        <v>203</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>255</v>
+      </c>
+      <c r="X25" t="s">
+        <v>256</v>
+      </c>
       <c r="Y25" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26">
@@ -3017,7 +3592,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3026,49 +3601,39 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K26" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s">
-        <v>260</v>
-      </c>
-      <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>3</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>263</v>
+      </c>
+      <c r="X26" t="s">
+        <v>264</v>
+      </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
@@ -3084,7 +3649,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3093,45 +3658,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s"/>
-      <c r="O27" t="s"/>
-      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>271</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
         <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>272</v>
+      </c>
+      <c r="X27" t="s">
+        <v>273</v>
+      </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
@@ -3147,7 +3716,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3156,49 +3725,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>281</v>
+      </c>
+      <c r="X28" t="s">
+        <v>282</v>
+      </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
@@ -3214,7 +3777,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3223,49 +3786,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>277</v>
-      </c>
-      <c r="O29" t="s">
-        <v>63</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>289</v>
+      </c>
+      <c r="X29" t="s">
+        <v>290</v>
+      </c>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
@@ -3281,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3290,49 +3843,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
@@ -3348,7 +3895,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3357,49 +3904,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>304</v>
+      </c>
+      <c r="X31" t="s">
+        <v>305</v>
+      </c>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
@@ -3415,7 +3956,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3424,49 +3965,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>4</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>314</v>
+      </c>
+      <c r="X32" t="s">
+        <v>315</v>
+      </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
@@ -3482,7 +4017,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3491,35 +4026,47 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
-      <c r="P33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>322</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>323</v>
+      </c>
+      <c r="X33" t="s">
+        <v>324</v>
+      </c>
       <c r="Y33" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34">
@@ -3535,7 +4082,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3544,49 +4091,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="L34" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>307</v>
-      </c>
-      <c r="O34" t="s">
-        <v>133</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>331</v>
+      </c>
+      <c r="X34" t="s">
+        <v>332</v>
+      </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
@@ -3602,7 +4149,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3611,49 +4158,1724 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="O35" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
         <v>3</v>
       </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>340</v>
+      </c>
+      <c r="X35" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>343</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>344</v>
+      </c>
+      <c r="J36" t="s">
+        <v>345</v>
+      </c>
+      <c r="K36" t="s">
+        <v>346</v>
+      </c>
+      <c r="L36" t="s">
+        <v>347</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>339</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>348</v>
+      </c>
+      <c r="X36" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>351</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>352</v>
+      </c>
+      <c r="J37" t="s">
+        <v>353</v>
+      </c>
+      <c r="K37" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" t="s">
+        <v>355</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>356</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>357</v>
+      </c>
+      <c r="X37" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>360</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>361</v>
+      </c>
+      <c r="J38" t="s">
+        <v>362</v>
+      </c>
+      <c r="K38" t="s">
+        <v>363</v>
+      </c>
+      <c r="L38" t="s">
+        <v>364</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>365</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>366</v>
+      </c>
+      <c r="X38" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>369</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>370</v>
+      </c>
+      <c r="J39" t="s">
+        <v>371</v>
+      </c>
+      <c r="K39" t="s">
+        <v>372</v>
+      </c>
+      <c r="L39" t="s">
+        <v>373</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>374</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" t="s">
+        <v>378</v>
+      </c>
+      <c r="K40" t="s">
+        <v>379</v>
+      </c>
+      <c r="L40" t="s">
+        <v>380</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>381</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>382</v>
+      </c>
+      <c r="X40" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>385</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>386</v>
+      </c>
+      <c r="J41" t="s">
+        <v>387</v>
+      </c>
+      <c r="K41" t="s">
+        <v>388</v>
+      </c>
+      <c r="L41" t="s">
+        <v>389</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>374</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>382</v>
+      </c>
+      <c r="X41" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>392</v>
+      </c>
+      <c r="J42" t="s">
+        <v>393</v>
+      </c>
+      <c r="K42" t="s">
+        <v>394</v>
+      </c>
+      <c r="L42" t="s">
+        <v>395</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>396</v>
+      </c>
+      <c r="O42" t="s">
+        <v>313</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>402</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" t="s">
+        <v>407</v>
+      </c>
+      <c r="L44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>409</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>410</v>
+      </c>
+      <c r="X44" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>413</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>414</v>
+      </c>
+      <c r="J45" t="s">
+        <v>415</v>
+      </c>
+      <c r="K45" t="s">
+        <v>416</v>
+      </c>
+      <c r="L45" t="s">
+        <v>417</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>409</v>
+      </c>
+      <c r="O45" t="s">
+        <v>72</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>418</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>419</v>
+      </c>
+      <c r="J46" t="s">
+        <v>420</v>
+      </c>
+      <c r="K46" t="s">
+        <v>421</v>
+      </c>
+      <c r="L46" t="s">
+        <v>422</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>424</v>
+      </c>
+      <c r="J47" t="s">
+        <v>425</v>
+      </c>
+      <c r="K47" t="s">
+        <v>426</v>
+      </c>
+      <c r="L47" t="s">
+        <v>427</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>428</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>434</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>435</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>436</v>
+      </c>
+      <c r="J49" t="s">
+        <v>437</v>
+      </c>
+      <c r="K49" t="s">
+        <v>438</v>
+      </c>
+      <c r="L49" t="s">
+        <v>439</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>440</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O50" t="s">
+        <v>72</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>447</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>448</v>
+      </c>
+      <c r="J51" t="s">
+        <v>449</v>
+      </c>
+      <c r="K51" t="s">
+        <v>450</v>
+      </c>
+      <c r="L51" t="s">
+        <v>451</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>452</v>
+      </c>
+      <c r="O51" t="s">
+        <v>81</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>453</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>454</v>
+      </c>
+      <c r="J52" t="s">
+        <v>455</v>
+      </c>
+      <c r="K52" t="s">
+        <v>456</v>
+      </c>
+      <c r="L52" t="s">
+        <v>457</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>458</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>459</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>460</v>
+      </c>
+      <c r="J53" t="s">
+        <v>461</v>
+      </c>
+      <c r="K53" t="s">
+        <v>462</v>
+      </c>
+      <c r="L53" t="s">
+        <v>463</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>464</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>466</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>467</v>
+      </c>
+      <c r="J54" t="s">
+        <v>468</v>
+      </c>
+      <c r="K54" t="s">
+        <v>469</v>
+      </c>
+      <c r="L54" t="s">
+        <v>470</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>471</v>
+      </c>
+      <c r="O54" t="s">
+        <v>313</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>472</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" t="s">
+        <v>474</v>
+      </c>
+      <c r="K55" t="s">
+        <v>475</v>
+      </c>
+      <c r="L55" t="s">
+        <v>476</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>477</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>484</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>485</v>
+      </c>
+      <c r="J57" t="s">
+        <v>486</v>
+      </c>
+      <c r="K57" t="s">
+        <v>487</v>
+      </c>
+      <c r="L57" t="s">
+        <v>488</v>
+      </c>
+      <c r="M57" t="n">
         <v>2</v>
       </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>315</v>
+      <c r="N57" t="s">
+        <v>489</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>491</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>492</v>
+      </c>
+      <c r="J58" t="s">
+        <v>493</v>
+      </c>
+      <c r="K58" t="s">
+        <v>494</v>
+      </c>
+      <c r="L58" t="s">
+        <v>495</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>496</v>
+      </c>
+      <c r="O58" t="s">
+        <v>313</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>499</v>
+      </c>
+      <c r="J59" t="s">
+        <v>500</v>
+      </c>
+      <c r="K59" t="s">
+        <v>501</v>
+      </c>
+      <c r="L59" t="s">
+        <v>502</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>503</v>
+      </c>
+      <c r="O59" t="s">
+        <v>504</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54403</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>506</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>507</v>
+      </c>
+      <c r="J60" t="s">
+        <v>508</v>
+      </c>
+      <c r="K60" t="s">
+        <v>509</v>
+      </c>
+      <c r="L60" t="s">
+        <v>510</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>511</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
